--- a/medicine/Enfance/Hélèna_Villovitch/Hélèna_Villovitch.xlsx
+++ b/medicine/Enfance/Hélèna_Villovitch/Hélèna_Villovitch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9l%C3%A8na_Villovitch</t>
+          <t>Hélèna_Villovitch</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hélèna Villovitch, nom d’artiste d’Hélène Villebasse, née le 3 novembre 1963 à Bourges est une écrivaine, réalisatrice et journaliste française.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%A9l%C3%A8na_Villovitch</t>
+          <t>Hélèna_Villovitch</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Hélène Villebasse, dite Hélèna Villovitch suit tout d'abord des études d'arts appliqués à l'École Boulle, puis crée en 1991 un groupe de cinéastes, le Molokino, avec Agathe Gris, Cécile Bortoletti et David TV.
 Elle publie son premier livre en 1998, après avoir envoyé un manuscrit par la poste aux éditions de l'Olivier. Dans ses ouvrages, elle s'inspire avec humour de ses diverses expériences et de faits d'actualité ou de société comme le monde du travail. En 2003, dans Petites soupes froides, l'artiste relate les travers de la vie parisienne. Son quatrième livre, Dans La Vraie Vie, montre la désillusion de jeunes artistes qui doivent travailler dans les bureaux. On retrouve ce thème dans son autre livre Je pense à toi tous les jours. En 2005, elle sort Le Bonheur par le shopping dans lequel elle essaye de savoir si le shopping rend heureux. Avec le recueil de nouvelles L'immobilier, paru aux éditions Verticales, elle décline le thème de l'habitation – habiter une maison, habiter son propre corps. Elle s'investit tout autant dans la littérature jeunesse, où elle mêle humour et fantastique dans la série des Ferdinand ou dans Le village des Monstres.
